--- a/result.xlsx
+++ b/result.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="342">
   <si>
     <t>Empresa</t>
   </si>
@@ -967,25 +967,76 @@
     <t/>
   </si>
   <si>
+    <t>1778970741609</t>
+  </si>
+  <si>
+    <t>02/12/1978</t>
+  </si>
+  <si>
     <t>1778567850717</t>
   </si>
   <si>
     <t>06/06/1975</t>
   </si>
   <si>
-    <t>1778970741609</t>
-  </si>
-  <si>
-    <t>02/12/1978</t>
-  </si>
-  <si>
-    <t>María Quib Choc</t>
+    <t>1783302720705</t>
+  </si>
+  <si>
+    <t>07/06/1975</t>
   </si>
   <si>
     <t>1784491641406</t>
   </si>
   <si>
     <t>23/09/1972</t>
+  </si>
+  <si>
+    <t>1786635730805</t>
+  </si>
+  <si>
+    <t>30/12/1981</t>
+  </si>
+  <si>
+    <t>1785409270114</t>
+  </si>
+  <si>
+    <t>29/01/1981</t>
+  </si>
+  <si>
+    <t>1788929712102</t>
+  </si>
+  <si>
+    <t>11/08/1955</t>
+  </si>
+  <si>
+    <t>1789234191320</t>
+  </si>
+  <si>
+    <t>01/01/1979</t>
+  </si>
+  <si>
+    <t>1791447580110</t>
+  </si>
+  <si>
+    <t>07/09/1963</t>
+  </si>
+  <si>
+    <t>1791760052105</t>
+  </si>
+  <si>
+    <t>14/02/1982</t>
+  </si>
+  <si>
+    <t>1792150860719</t>
+  </si>
+  <si>
+    <t>11/03/1966</t>
+  </si>
+  <si>
+    <t>1792084622101</t>
+  </si>
+  <si>
+    <t>25/12/1987</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1076,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -2923,16 +2974,16 @@
         <v>15</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>322</v>
+        <v>12</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>317</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2946,10 +2997,10 @@
         <v>321</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>322</v>
+        <v>12</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>317</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2957,10 +3008,10 @@
         <v>15</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>12</v>
@@ -2971,18 +3022,171 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C115" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="D115" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E115" s="0" t="s">
+      <c r="C116" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" s="0" t="s">
         <v>12</v>
       </c>
     </row>
